--- a/Code/Results/Cases/Case_0_183/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_183/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.141575597467344</v>
+        <v>4.928768402600219</v>
       </c>
       <c r="D2">
-        <v>9.910877980556135</v>
+        <v>5.649667461805564</v>
       </c>
       <c r="E2">
-        <v>34.15599220690321</v>
+        <v>16.72339935239674</v>
       </c>
       <c r="F2">
-        <v>68.71879243910068</v>
+        <v>38.60592147596483</v>
       </c>
       <c r="G2">
-        <v>112.8420457447858</v>
+        <v>59.47479272158546</v>
       </c>
       <c r="H2">
-        <v>28.08637236034729</v>
+        <v>18.02939739762821</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -456,22 +456,22 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7.459973231725797</v>
+        <v>4.750715973229781</v>
       </c>
       <c r="D3">
-        <v>9.051804764914829</v>
+        <v>5.449517218026375</v>
       </c>
       <c r="E3">
-        <v>31.06522761790488</v>
+        <v>15.74130727870119</v>
       </c>
       <c r="F3">
-        <v>62.82171160731615</v>
+        <v>36.83191499190448</v>
       </c>
       <c r="G3">
-        <v>103.1261028604403</v>
+        <v>56.11544429333878</v>
       </c>
       <c r="H3">
-        <v>25.67121253942909</v>
+        <v>17.50004222806566</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>7.036664920695855</v>
+        <v>4.640201828005192</v>
       </c>
       <c r="D4">
-        <v>8.52448907336016</v>
+        <v>5.325647932214536</v>
       </c>
       <c r="E4">
-        <v>29.18074003499959</v>
+        <v>15.11449299435107</v>
       </c>
       <c r="F4">
-        <v>59.17957320101006</v>
+        <v>35.71611540401494</v>
       </c>
       <c r="G4">
-        <v>97.1274265338249</v>
+        <v>53.97312806182247</v>
       </c>
       <c r="H4">
-        <v>24.18086739876603</v>
+        <v>17.17499675511617</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6.862182478035534</v>
+        <v>4.594943887929193</v>
       </c>
       <c r="D5">
-        <v>8.308380732209354</v>
+        <v>5.275008664708693</v>
       </c>
       <c r="E5">
-        <v>28.41086462517764</v>
+        <v>14.85333479962914</v>
       </c>
       <c r="F5">
-        <v>57.68281041476081</v>
+        <v>35.25546152999916</v>
       </c>
       <c r="G5">
-        <v>94.66254863757705</v>
+        <v>53.08108181568053</v>
       </c>
       <c r="H5">
-        <v>23.56868630308086</v>
+        <v>17.04274510246151</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -561,22 +561,22 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6.833071414607525</v>
+        <v>4.587417753661993</v>
       </c>
       <c r="D6">
-        <v>8.272392008413867</v>
+        <v>5.266592867242308</v>
       </c>
       <c r="E6">
-        <v>28.28278568374581</v>
+        <v>14.80963250433649</v>
       </c>
       <c r="F6">
-        <v>57.43334338846638</v>
+        <v>35.17863344159592</v>
       </c>
       <c r="G6">
-        <v>94.25173917133601</v>
+        <v>52.93184151972932</v>
       </c>
       <c r="H6">
-        <v>23.46666980974187</v>
+        <v>17.02080368120299</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -596,22 +596,22 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>7.03432068060224</v>
+        <v>4.639592259107098</v>
       </c>
       <c r="D7">
-        <v>8.521580918961007</v>
+        <v>5.324965532006909</v>
       </c>
       <c r="E7">
-        <v>29.17037087043791</v>
+        <v>15.11099372557861</v>
       </c>
       <c r="F7">
-        <v>59.1594462052857</v>
+        <v>35.70992596150554</v>
       </c>
       <c r="G7">
-        <v>97.09428021411969</v>
+        <v>53.96117322644588</v>
       </c>
       <c r="H7">
-        <v>24.17263427552603</v>
+        <v>17.17321203841497</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -631,22 +631,22 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>7.907013684469483</v>
+        <v>4.867666770924492</v>
       </c>
       <c r="D8">
-        <v>9.613743622323975</v>
+        <v>5.580906729155222</v>
       </c>
       <c r="E8">
-        <v>33.08380005760787</v>
+        <v>16.38985453637523</v>
       </c>
       <c r="F8">
-        <v>66.68480359112402</v>
+        <v>38.00015848500796</v>
       </c>
       <c r="G8">
-        <v>109.4903188185703</v>
+        <v>58.33356360182393</v>
       </c>
       <c r="H8">
-        <v>27.25305164798064</v>
+        <v>17.84700391936297</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -666,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>9.634191786705333</v>
+        <v>5.302440707935573</v>
       </c>
       <c r="D9">
-        <v>11.84719215396904</v>
+        <v>6.071699395578595</v>
       </c>
       <c r="E9">
-        <v>41.24813697887891</v>
+        <v>18.86970573823709</v>
       </c>
       <c r="F9">
-        <v>81.78751702691403</v>
+        <v>42.25359736752895</v>
       </c>
       <c r="G9">
-        <v>134.3975337051293</v>
+        <v>66.24093425936105</v>
       </c>
       <c r="H9">
-        <v>33.44866727105463</v>
+        <v>19.15937317617588</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -701,22 +701,22 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>11.06368648094306</v>
+        <v>5.610646901156922</v>
       </c>
       <c r="D10">
-        <v>13.80737344495025</v>
+        <v>6.421499068240283</v>
       </c>
       <c r="E10">
-        <v>48.70686871046202</v>
+        <v>20.6068665749502</v>
       </c>
       <c r="F10">
-        <v>94.57059161553254</v>
+        <v>45.20348272566346</v>
       </c>
       <c r="G10">
-        <v>155.5337916981873</v>
+        <v>71.60792151330536</v>
       </c>
       <c r="H10">
-        <v>38.71030365240664</v>
+        <v>20.10724551707758</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -736,22 +736,22 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>11.8602117849319</v>
+        <v>5.747787228625389</v>
       </c>
       <c r="D11">
-        <v>14.97286515847444</v>
+        <v>6.577581296935055</v>
       </c>
       <c r="E11">
-        <v>53.36614059909325</v>
+        <v>21.35638126211074</v>
       </c>
       <c r="F11">
-        <v>101.8723076753017</v>
+        <v>46.50257961559647</v>
       </c>
       <c r="G11">
-        <v>167.6438291941766</v>
+        <v>73.9482740044039</v>
       </c>
       <c r="H11">
-        <v>41.72599627870172</v>
+        <v>20.53288917723165</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>12.22298983354422</v>
+        <v>5.79923357677165</v>
       </c>
       <c r="D12">
-        <v>15.53025525003376</v>
+        <v>6.636197990370094</v>
       </c>
       <c r="E12">
-        <v>55.68480383855325</v>
+        <v>21.63440586590772</v>
       </c>
       <c r="F12">
-        <v>105.2632426331914</v>
+        <v>46.98803801519092</v>
       </c>
       <c r="G12">
-        <v>173.2808702994775</v>
+        <v>74.81966114465952</v>
       </c>
       <c r="H12">
-        <v>43.12992440987966</v>
+        <v>20.6931227634408</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -806,22 +806,22 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>12.14014101839243</v>
+        <v>5.788175943633451</v>
       </c>
       <c r="D13">
-        <v>15.40115203360046</v>
+        <v>6.623596289287762</v>
       </c>
       <c r="E13">
-        <v>55.14139052495958</v>
+        <v>21.57478535990522</v>
       </c>
       <c r="F13">
-        <v>104.4843494522383</v>
+        <v>46.88377867963652</v>
       </c>
       <c r="G13">
-        <v>171.9851776299187</v>
+        <v>74.63265710415702</v>
       </c>
       <c r="H13">
-        <v>42.80721968056714</v>
+        <v>20.65865801399359</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -841,22 +841,22 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>11.88822031349877</v>
+        <v>5.752029722615116</v>
       </c>
       <c r="D14">
-        <v>15.01520646782457</v>
+        <v>6.58241377987238</v>
       </c>
       <c r="E14">
-        <v>53.53989312354906</v>
+        <v>21.37937043541524</v>
       </c>
       <c r="F14">
-        <v>102.1323928988052</v>
+        <v>46.54265012011395</v>
       </c>
       <c r="G14">
-        <v>168.0758570462073</v>
+        <v>74.02026275025013</v>
       </c>
       <c r="H14">
-        <v>41.83359147891063</v>
+        <v>20.54609150817867</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -876,22 +876,22 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>11.74460126557558</v>
+        <v>5.729824625547359</v>
       </c>
       <c r="D15">
-        <v>14.79919972572727</v>
+        <v>6.557123326602148</v>
       </c>
       <c r="E15">
-        <v>52.65719510355057</v>
+        <v>21.25891946079912</v>
       </c>
       <c r="F15">
-        <v>100.8014822572421</v>
+        <v>46.33284632113646</v>
       </c>
       <c r="G15">
-        <v>165.8656186852044</v>
+        <v>73.64321121104929</v>
       </c>
       <c r="H15">
-        <v>41.28314461776925</v>
+        <v>20.47701354564039</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -911,22 +911,22 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>11.01649826178451</v>
+        <v>5.601618809704126</v>
       </c>
       <c r="D16">
-        <v>13.74032875939103</v>
+        <v>6.411233009933231</v>
       </c>
       <c r="E16">
-        <v>48.4450412266563</v>
+        <v>20.55706926943454</v>
       </c>
       <c r="F16">
-        <v>94.14290556848381</v>
+        <v>45.11769302263878</v>
       </c>
       <c r="G16">
-        <v>154.825456573146</v>
+        <v>71.45291064196773</v>
       </c>
       <c r="H16">
-        <v>38.53393018134992</v>
+        <v>20.07930384196964</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>10.61926588695753</v>
+        <v>5.522149913736917</v>
       </c>
       <c r="D17">
-        <v>13.18316130936943</v>
+        <v>6.320916434563105</v>
       </c>
       <c r="E17">
-        <v>46.29021659855096</v>
+        <v>20.11611526749959</v>
       </c>
       <c r="F17">
-        <v>90.56019221265007</v>
+        <v>44.36101940554379</v>
       </c>
       <c r="G17">
-        <v>148.8953569293805</v>
+        <v>70.08308494553567</v>
       </c>
       <c r="H17">
-        <v>37.05745106187175</v>
+        <v>19.83378887045362</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -981,22 +981,22 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>10.4015402739269</v>
+        <v>5.476155396883597</v>
       </c>
       <c r="D18">
-        <v>12.8827396791339</v>
+        <v>6.268684870150421</v>
       </c>
       <c r="E18">
-        <v>45.1424397155205</v>
+        <v>19.85865322088635</v>
       </c>
       <c r="F18">
-        <v>88.60858382668164</v>
+        <v>43.92178569123348</v>
       </c>
       <c r="G18">
-        <v>145.6675402290921</v>
+        <v>69.28569292124584</v>
       </c>
       <c r="H18">
-        <v>36.25386865951531</v>
+        <v>19.69206097939126</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1016,22 +1016,22 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>10.3292586967365</v>
+        <v>5.460534774780904</v>
       </c>
       <c r="D19">
-        <v>12.7837086876711</v>
+        <v>6.25095305674084</v>
       </c>
       <c r="E19">
-        <v>44.76603507751961</v>
+        <v>19.77082028624357</v>
       </c>
       <c r="F19">
-        <v>87.96240115283464</v>
+        <v>43.7723899325955</v>
       </c>
       <c r="G19">
-        <v>144.5991538814097</v>
+        <v>69.01408814294487</v>
       </c>
       <c r="H19">
-        <v>35.98790176317495</v>
+        <v>19.64399087573018</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>10.66033037733041</v>
+        <v>5.530639469913202</v>
       </c>
       <c r="D20">
-        <v>13.2401966910521</v>
+        <v>6.330560553955038</v>
       </c>
       <c r="E20">
-        <v>46.5091777189288</v>
+        <v>20.16345227902731</v>
       </c>
       <c r="F20">
-        <v>90.92919059144286</v>
+        <v>44.44198667598485</v>
       </c>
       <c r="G20">
-        <v>149.5058406215354</v>
+        <v>70.2298914315606</v>
       </c>
       <c r="H20">
-        <v>37.20944097699861</v>
+        <v>19.85997871186778</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>11.959711640937</v>
+        <v>5.762660256602844</v>
       </c>
       <c r="D21">
-        <v>15.12377745005268</v>
+        <v>6.594523703688522</v>
       </c>
       <c r="E21">
-        <v>53.98711839067053</v>
+        <v>21.4369255030305</v>
       </c>
       <c r="F21">
-        <v>102.7974794459</v>
+        <v>46.64302604969184</v>
       </c>
       <c r="G21">
-        <v>169.1808740665313</v>
+        <v>74.20054304427929</v>
       </c>
       <c r="H21">
-        <v>42.10879507496629</v>
+        <v>20.57918188555966</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1121,22 +1121,22 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>11.959711640937</v>
+        <v>5.911451246215811</v>
       </c>
       <c r="D22">
-        <v>15.12377745005268</v>
+        <v>6.764173959020208</v>
       </c>
       <c r="E22">
-        <v>53.98711839067053</v>
+        <v>22.23543168887845</v>
       </c>
       <c r="F22">
-        <v>102.7974794459</v>
+        <v>48.04364248591192</v>
       </c>
       <c r="G22">
-        <v>169.1808740665313</v>
+        <v>76.70892311719525</v>
       </c>
       <c r="H22">
-        <v>42.10879507496629</v>
+        <v>21.04363524480705</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1156,22 +1156,22 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>11.959711640937</v>
+        <v>5.83231269242143</v>
       </c>
       <c r="D23">
-        <v>15.12377745005268</v>
+        <v>6.67390562883974</v>
       </c>
       <c r="E23">
-        <v>53.98711839067053</v>
+        <v>21.81232618168076</v>
       </c>
       <c r="F23">
-        <v>102.7974794459</v>
+        <v>47.29966667446963</v>
       </c>
       <c r="G23">
-        <v>169.1808740665313</v>
+        <v>75.3781675039785</v>
       </c>
       <c r="H23">
-        <v>42.10879507496629</v>
+        <v>20.79630489046479</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1191,22 +1191,22 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>11.959711640937</v>
+        <v>5.526802293663678</v>
       </c>
       <c r="D24">
-        <v>15.12377745005268</v>
+        <v>6.326201401030127</v>
       </c>
       <c r="E24">
-        <v>53.98711839067053</v>
+        <v>20.14206352909109</v>
       </c>
       <c r="F24">
-        <v>102.7974794459</v>
+        <v>44.40539446720129</v>
       </c>
       <c r="G24">
-        <v>169.1808740665313</v>
+        <v>70.16355090943041</v>
       </c>
       <c r="H24">
-        <v>42.10879507496629</v>
+        <v>19.84814007350923</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1226,22 +1226,22 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>11.959711640937</v>
+        <v>5.186557253758299</v>
       </c>
       <c r="D25">
-        <v>15.12377745005268</v>
+        <v>5.940557437116683</v>
       </c>
       <c r="E25">
-        <v>53.98711839067053</v>
+        <v>18.19349308199893</v>
       </c>
       <c r="F25">
-        <v>102.7974794459</v>
+        <v>41.13180146318761</v>
       </c>
       <c r="G25">
-        <v>169.1808740665313</v>
+        <v>64.17740294065266</v>
       </c>
       <c r="H25">
-        <v>42.10879507496629</v>
+        <v>18.80647406668156</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_183/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_183/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.928768402600219</v>
+        <v>8.141575597467391</v>
       </c>
       <c r="D2">
-        <v>5.649667461805564</v>
+        <v>9.910877980556144</v>
       </c>
       <c r="E2">
-        <v>16.72339935239674</v>
+        <v>34.1559922069032</v>
       </c>
       <c r="F2">
-        <v>38.60592147596483</v>
+        <v>68.71879243910087</v>
       </c>
       <c r="G2">
-        <v>59.47479272158546</v>
+        <v>112.8420457447862</v>
       </c>
       <c r="H2">
-        <v>18.02939739762821</v>
+        <v>28.08637236034741</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -456,22 +456,22 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.750715973229781</v>
+        <v>7.459973231725751</v>
       </c>
       <c r="D3">
-        <v>5.449517218026375</v>
+        <v>9.051804764914914</v>
       </c>
       <c r="E3">
-        <v>15.74130727870119</v>
+        <v>31.06522761790488</v>
       </c>
       <c r="F3">
-        <v>36.83191499190448</v>
+        <v>62.82171160731587</v>
       </c>
       <c r="G3">
-        <v>56.11544429333878</v>
+        <v>103.1261028604399</v>
       </c>
       <c r="H3">
-        <v>17.50004222806566</v>
+        <v>25.67121253942898</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4.640201828005192</v>
+        <v>7.03666492069584</v>
       </c>
       <c r="D4">
-        <v>5.325647932214536</v>
+        <v>8.524489073360071</v>
       </c>
       <c r="E4">
-        <v>15.11449299435107</v>
+        <v>29.18074003499958</v>
       </c>
       <c r="F4">
-        <v>35.71611540401494</v>
+        <v>59.17957320101006</v>
       </c>
       <c r="G4">
-        <v>53.97312806182247</v>
+        <v>97.12742653382487</v>
       </c>
       <c r="H4">
-        <v>17.17499675511617</v>
+        <v>24.18086739876602</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.594943887929193</v>
+        <v>6.862182478035356</v>
       </c>
       <c r="D5">
-        <v>5.275008664708693</v>
+        <v>8.308380732209436</v>
       </c>
       <c r="E5">
-        <v>14.85333479962914</v>
+        <v>28.41086462517774</v>
       </c>
       <c r="F5">
-        <v>35.25546152999916</v>
+        <v>57.68281041476104</v>
       </c>
       <c r="G5">
-        <v>53.08108181568053</v>
+        <v>94.66254863757747</v>
       </c>
       <c r="H5">
-        <v>17.04274510246151</v>
+        <v>23.56868630308094</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -561,22 +561,22 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.587417753661993</v>
+        <v>6.833071414607407</v>
       </c>
       <c r="D6">
-        <v>5.266592867242308</v>
+        <v>8.272392008413879</v>
       </c>
       <c r="E6">
-        <v>14.80963250433649</v>
+        <v>28.28278568374587</v>
       </c>
       <c r="F6">
-        <v>35.17863344159592</v>
+        <v>57.43334338846635</v>
       </c>
       <c r="G6">
-        <v>52.93184151972932</v>
+        <v>94.25173917133598</v>
       </c>
       <c r="H6">
-        <v>17.02080368120299</v>
+        <v>23.46666980974186</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -596,22 +596,22 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4.639592259107098</v>
+        <v>7.034320680602437</v>
       </c>
       <c r="D7">
-        <v>5.324965532006909</v>
+        <v>8.521580918961044</v>
       </c>
       <c r="E7">
-        <v>15.11099372557861</v>
+        <v>29.1703708704379</v>
       </c>
       <c r="F7">
-        <v>35.70992596150554</v>
+        <v>59.15944620528602</v>
       </c>
       <c r="G7">
-        <v>53.96117322644588</v>
+        <v>97.09428021412026</v>
       </c>
       <c r="H7">
-        <v>17.17321203841497</v>
+        <v>24.17263427552616</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -631,22 +631,22 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>4.867666770924492</v>
+        <v>7.907013684469579</v>
       </c>
       <c r="D8">
-        <v>5.580906729155222</v>
+        <v>9.613743622323897</v>
       </c>
       <c r="E8">
-        <v>16.38985453637523</v>
+        <v>33.08380005760791</v>
       </c>
       <c r="F8">
-        <v>38.00015848500796</v>
+        <v>66.68480359112401</v>
       </c>
       <c r="G8">
-        <v>58.33356360182393</v>
+        <v>109.4903188185702</v>
       </c>
       <c r="H8">
-        <v>17.84700391936297</v>
+        <v>27.25305164798063</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -666,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5.302440707935573</v>
+        <v>9.634191786705406</v>
       </c>
       <c r="D9">
-        <v>6.071699395578595</v>
+        <v>11.84719215396898</v>
       </c>
       <c r="E9">
-        <v>18.86970573823709</v>
+        <v>41.24813697887886</v>
       </c>
       <c r="F9">
-        <v>42.25359736752895</v>
+        <v>81.78751702691379</v>
       </c>
       <c r="G9">
-        <v>66.24093425936105</v>
+        <v>134.3975337051288</v>
       </c>
       <c r="H9">
-        <v>19.15937317617588</v>
+        <v>33.44866727105455</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -701,22 +701,22 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5.610646901156922</v>
+        <v>11.06368648094303</v>
       </c>
       <c r="D10">
-        <v>6.421499068240283</v>
+        <v>13.80737344495026</v>
       </c>
       <c r="E10">
-        <v>20.6068665749502</v>
+        <v>48.706868710462</v>
       </c>
       <c r="F10">
-        <v>45.20348272566346</v>
+        <v>94.57059161553248</v>
       </c>
       <c r="G10">
-        <v>71.60792151330536</v>
+        <v>155.5337916981872</v>
       </c>
       <c r="H10">
-        <v>20.10724551707758</v>
+        <v>38.71030365240662</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -736,22 +736,22 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>5.747787228625389</v>
+        <v>11.86021178493184</v>
       </c>
       <c r="D11">
-        <v>6.577581296935055</v>
+        <v>14.97286515847432</v>
       </c>
       <c r="E11">
-        <v>21.35638126211074</v>
+        <v>53.36614059909308</v>
       </c>
       <c r="F11">
-        <v>46.50257961559647</v>
+        <v>101.8723076753015</v>
       </c>
       <c r="G11">
-        <v>73.9482740044039</v>
+        <v>167.6438291941761</v>
       </c>
       <c r="H11">
-        <v>20.53288917723165</v>
+        <v>41.72599627870166</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>5.79923357677165</v>
+        <v>12.22298983354424</v>
       </c>
       <c r="D12">
-        <v>6.636197990370094</v>
+        <v>15.53025525003388</v>
       </c>
       <c r="E12">
-        <v>21.63440586590772</v>
+        <v>55.68480383855336</v>
       </c>
       <c r="F12">
-        <v>46.98803801519092</v>
+        <v>105.2632426331918</v>
       </c>
       <c r="G12">
-        <v>74.81966114465952</v>
+        <v>173.2808702994783</v>
       </c>
       <c r="H12">
-        <v>20.6931227634408</v>
+        <v>43.12992440987985</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -806,22 +806,22 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>5.788175943633451</v>
+        <v>12.14014101839254</v>
       </c>
       <c r="D13">
-        <v>6.623596289287762</v>
+        <v>15.40115203360058</v>
       </c>
       <c r="E13">
-        <v>21.57478535990522</v>
+        <v>55.14139052496005</v>
       </c>
       <c r="F13">
-        <v>46.88377867963652</v>
+        <v>104.4843494522392</v>
       </c>
       <c r="G13">
-        <v>74.63265710415702</v>
+        <v>171.9851776299202</v>
       </c>
       <c r="H13">
-        <v>20.65865801399359</v>
+        <v>42.8072196805675</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -841,22 +841,22 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>5.752029722615116</v>
+        <v>11.88822031349888</v>
       </c>
       <c r="D14">
-        <v>6.58241377987238</v>
+        <v>15.01520646782479</v>
       </c>
       <c r="E14">
-        <v>21.37937043541524</v>
+        <v>53.53989312354922</v>
       </c>
       <c r="F14">
-        <v>46.54265012011395</v>
+        <v>102.1323928988055</v>
       </c>
       <c r="G14">
-        <v>74.02026275025013</v>
+        <v>168.0758570462081</v>
       </c>
       <c r="H14">
-        <v>20.54609150817867</v>
+        <v>41.83359147891078</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -876,22 +876,22 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>5.729824625547359</v>
+        <v>11.74460126557564</v>
       </c>
       <c r="D15">
-        <v>6.557123326602148</v>
+        <v>14.79919972572744</v>
       </c>
       <c r="E15">
-        <v>21.25891946079912</v>
+        <v>52.65719510355081</v>
       </c>
       <c r="F15">
-        <v>46.33284632113646</v>
+        <v>100.8014822572428</v>
       </c>
       <c r="G15">
-        <v>73.64321121104929</v>
+        <v>165.8656186852054</v>
       </c>
       <c r="H15">
-        <v>20.47701354564039</v>
+        <v>41.28314461776949</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -911,22 +911,22 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>5.601618809704126</v>
+        <v>11.01649826178469</v>
       </c>
       <c r="D16">
-        <v>6.411233009933231</v>
+        <v>13.74032875939105</v>
       </c>
       <c r="E16">
-        <v>20.55706926943454</v>
+        <v>48.44504122665644</v>
       </c>
       <c r="F16">
-        <v>45.11769302263878</v>
+        <v>94.14290556848403</v>
       </c>
       <c r="G16">
-        <v>71.45291064196773</v>
+        <v>154.8254565731463</v>
       </c>
       <c r="H16">
-        <v>20.07930384196964</v>
+        <v>38.53393018135002</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>5.522149913736917</v>
+        <v>10.6192658869577</v>
       </c>
       <c r="D17">
-        <v>6.320916434563105</v>
+        <v>13.18316130936928</v>
       </c>
       <c r="E17">
-        <v>20.11611526749959</v>
+        <v>46.29021659855096</v>
       </c>
       <c r="F17">
-        <v>44.36101940554379</v>
+        <v>90.56019221264981</v>
       </c>
       <c r="G17">
-        <v>70.08308494553567</v>
+        <v>148.8953569293801</v>
       </c>
       <c r="H17">
-        <v>19.83378887045362</v>
+        <v>37.05745106187165</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -981,22 +981,22 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>5.476155396883597</v>
+        <v>10.4015402739269</v>
       </c>
       <c r="D18">
-        <v>6.268684870150421</v>
+        <v>12.88273967913397</v>
       </c>
       <c r="E18">
-        <v>19.85865322088635</v>
+        <v>45.14243971552065</v>
       </c>
       <c r="F18">
-        <v>43.92178569123348</v>
+        <v>88.60858382668225</v>
       </c>
       <c r="G18">
-        <v>69.28569292124584</v>
+        <v>145.667540229093</v>
       </c>
       <c r="H18">
-        <v>19.69206097939126</v>
+        <v>36.25386865951558</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1016,22 +1016,22 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>5.460534774780904</v>
+        <v>10.32925869673645</v>
       </c>
       <c r="D19">
-        <v>6.25095305674084</v>
+        <v>12.78370868767106</v>
       </c>
       <c r="E19">
-        <v>19.77082028624357</v>
+        <v>44.76603507751935</v>
       </c>
       <c r="F19">
-        <v>43.7723899325955</v>
+        <v>87.96240115283413</v>
       </c>
       <c r="G19">
-        <v>69.01408814294487</v>
+        <v>144.5991538814089</v>
       </c>
       <c r="H19">
-        <v>19.64399087573018</v>
+        <v>35.98790176317476</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>5.530639469913202</v>
+        <v>10.66033037733031</v>
       </c>
       <c r="D20">
-        <v>6.330560553955038</v>
+        <v>13.24019669105186</v>
       </c>
       <c r="E20">
-        <v>20.16345227902731</v>
+        <v>46.50917771892856</v>
       </c>
       <c r="F20">
-        <v>44.44198667598485</v>
+        <v>90.92919059144211</v>
       </c>
       <c r="G20">
-        <v>70.2298914315606</v>
+        <v>149.505840621534</v>
       </c>
       <c r="H20">
-        <v>19.85997871186778</v>
+        <v>37.20944097699831</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>5.762660256602844</v>
+        <v>11.95971164093702</v>
       </c>
       <c r="D21">
-        <v>6.594523703688522</v>
+        <v>15.12377745005251</v>
       </c>
       <c r="E21">
-        <v>21.4369255030305</v>
+        <v>53.98711839067035</v>
       </c>
       <c r="F21">
-        <v>46.64302604969184</v>
+        <v>102.7974794458997</v>
       </c>
       <c r="G21">
-        <v>74.20054304427929</v>
+        <v>169.1808740665309</v>
       </c>
       <c r="H21">
-        <v>20.57918188555966</v>
+        <v>42.10879507496615</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1121,22 +1121,22 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>5.911451246215811</v>
+        <v>11.95971164093702</v>
       </c>
       <c r="D22">
-        <v>6.764173959020208</v>
+        <v>15.12377745005251</v>
       </c>
       <c r="E22">
-        <v>22.23543168887845</v>
+        <v>53.98711839067035</v>
       </c>
       <c r="F22">
-        <v>48.04364248591192</v>
+        <v>102.7974794458997</v>
       </c>
       <c r="G22">
-        <v>76.70892311719525</v>
+        <v>169.1808740665309</v>
       </c>
       <c r="H22">
-        <v>21.04363524480705</v>
+        <v>42.10879507496615</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1156,22 +1156,22 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>5.83231269242143</v>
+        <v>11.95971164093702</v>
       </c>
       <c r="D23">
-        <v>6.67390562883974</v>
+        <v>15.12377745005251</v>
       </c>
       <c r="E23">
-        <v>21.81232618168076</v>
+        <v>53.98711839067035</v>
       </c>
       <c r="F23">
-        <v>47.29966667446963</v>
+        <v>102.7974794458997</v>
       </c>
       <c r="G23">
-        <v>75.3781675039785</v>
+        <v>169.1808740665309</v>
       </c>
       <c r="H23">
-        <v>20.79630489046479</v>
+        <v>42.10879507496615</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1191,22 +1191,22 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>5.526802293663678</v>
+        <v>11.95971164093702</v>
       </c>
       <c r="D24">
-        <v>6.326201401030127</v>
+        <v>15.12377745005251</v>
       </c>
       <c r="E24">
-        <v>20.14206352909109</v>
+        <v>53.98711839067035</v>
       </c>
       <c r="F24">
-        <v>44.40539446720129</v>
+        <v>102.7974794458997</v>
       </c>
       <c r="G24">
-        <v>70.16355090943041</v>
+        <v>169.1808740665309</v>
       </c>
       <c r="H24">
-        <v>19.84814007350923</v>
+        <v>42.10879507496615</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1226,22 +1226,22 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>5.186557253758299</v>
+        <v>11.95971164093702</v>
       </c>
       <c r="D25">
-        <v>5.940557437116683</v>
+        <v>15.12377745005251</v>
       </c>
       <c r="E25">
-        <v>18.19349308199893</v>
+        <v>53.98711839067035</v>
       </c>
       <c r="F25">
-        <v>41.13180146318761</v>
+        <v>102.7974794458997</v>
       </c>
       <c r="G25">
-        <v>64.17740294065266</v>
+        <v>169.1808740665309</v>
       </c>
       <c r="H25">
-        <v>18.80647406668156</v>
+        <v>42.10879507496615</v>
       </c>
       <c r="I25">
         <v>0</v>
